--- a/outputs-HGR-r202-archive/g__ER4.xlsx
+++ b/outputs-HGR-r202-archive/g__ER4.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,35 +543,35 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11741.fa</t>
+          <t>even_MAG-GUT12393.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2679719018295376</v>
+        <v>0.6245943908368401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02275503685054985</v>
+        <v>0.05635460225221628</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1122584850087619</v>
+        <v>0.01037716083172856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2221620458413325</v>
+        <v>0.05398176916358688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07763863978349717</v>
+        <v>0.06156275494438446</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1848055372041824</v>
+        <v>0.1800709394104825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08276758459191114</v>
+        <v>0.009604247364023381</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02964076889022761</v>
+        <v>0.003454135196738119</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2679719018295376</v>
+        <v>0.6245943908368401</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -587,35 +587,35 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12393.fa</t>
+          <t>even_MAG-GUT12533.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6245943908368401</v>
+        <v>0.484932998185729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05635460225221628</v>
+        <v>0.08073261141751514</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01037716083172856</v>
+        <v>0.02703264245424082</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05398176916358688</v>
+        <v>0.06555673558973581</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06156275494438446</v>
+        <v>0.146308311807046</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1800709394104825</v>
+        <v>0.173876655469813</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009604247364023381</v>
+        <v>0.009537421791872095</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003454135196738119</v>
+        <v>0.01202262328404812</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6245943908368401</v>
+        <v>0.484932998185729</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -631,35 +631,35 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12533.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.484932998185729</v>
+        <v>0.4697744558050854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08073261141751514</v>
+        <v>0.03623927968448407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02703264245424082</v>
+        <v>0.01479864604178722</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06555673558973581</v>
+        <v>0.05287212511944927</v>
       </c>
       <c r="F5" t="n">
-        <v>0.146308311807046</v>
+        <v>0.1603339495626689</v>
       </c>
       <c r="G5" t="n">
-        <v>0.173876655469813</v>
+        <v>0.254743637388227</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009537421791872095</v>
+        <v>0.00363763078439693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01202262328404812</v>
+        <v>0.007600275613901024</v>
       </c>
       <c r="J5" t="n">
-        <v>0.484932998185729</v>
+        <v>0.4697744558050854</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -675,35 +675,35 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12691.fa</t>
+          <t>even_MAG-GUT13333.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4697744558050854</v>
+        <v>0.5396823591290802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03623927968448407</v>
+        <v>0.03506914442164835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01479864604178722</v>
+        <v>0.01669848435429578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05287212511944927</v>
+        <v>0.07894575534014044</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1603339495626689</v>
+        <v>0.1178207822180243</v>
       </c>
       <c r="G6" t="n">
-        <v>0.254743637388227</v>
+        <v>0.1974306792822003</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00363763078439693</v>
+        <v>0.009149269829066877</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007600275613901024</v>
+        <v>0.005203525425543633</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4697744558050854</v>
+        <v>0.5396823591290802</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -719,35 +719,35 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13333.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5396823591290802</v>
+        <v>0.6420017283348893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03506914442164835</v>
+        <v>0.01853953146931742</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01669848435429578</v>
+        <v>0.01864281747911422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07894575534014044</v>
+        <v>0.04036449044593424</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1178207822180243</v>
+        <v>0.1042353472733529</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1974306792822003</v>
+        <v>0.1668626119140803</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009149269829066877</v>
+        <v>0.004191564771280147</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005203525425543633</v>
+        <v>0.005161908312031335</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5396823591290802</v>
+        <v>0.6420017283348893</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -763,35 +763,35 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13646.fa</t>
+          <t>even_MAG-GUT16851.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5064029273484286</v>
+        <v>0.6102124102858845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06800489389357704</v>
+        <v>0.04651177963546707</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03737890644278761</v>
+        <v>0.009713226882260485</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1423562068734255</v>
+        <v>0.03935478346202367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05817758052296332</v>
+        <v>0.1334506825466346</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1447048978465981</v>
+        <v>0.1493447486947302</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03286601454436031</v>
+        <v>0.004319734083421325</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01010857252785972</v>
+        <v>0.007092634409578195</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5064029273484286</v>
+        <v>0.6102124102858845</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -807,35 +807,35 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14116.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5062852395277274</v>
+        <v>0.4190303816452843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06780402569401836</v>
+        <v>0.0219353337299036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03736772851781886</v>
+        <v>0.06103144732004626</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1424231424116374</v>
+        <v>0.09855449045855941</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05823804127217592</v>
+        <v>0.1084859461672515</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1448650787679229</v>
+        <v>0.2543499423903012</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03290133372922578</v>
+        <v>0.02335706878842221</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01011541007947328</v>
+        <v>0.01325538950023156</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5062852395277274</v>
+        <v>0.4190303816452843</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -851,35 +851,35 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT151.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6420017283348893</v>
+        <v>0.5033795341667238</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01853953146931742</v>
+        <v>0.05069304559758228</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01864281747911422</v>
+        <v>0.008456368279620296</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04036449044593424</v>
+        <v>0.1011942839096482</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1042353472733529</v>
+        <v>0.1137345272547427</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1668626119140803</v>
+        <v>0.1991810497188785</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004191564771280147</v>
+        <v>0.01545194397956696</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005161908312031335</v>
+        <v>0.007909247093237527</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6420017283348893</v>
+        <v>0.5033795341667238</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -895,35 +895,35 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16851.fa</t>
+          <t>even_MAG-GUT23967.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6102124102858845</v>
+        <v>0.4799169176579977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04651177963546707</v>
+        <v>0.02857756929242398</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009713226882260485</v>
+        <v>0.03851946104286197</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03935478346202367</v>
+        <v>0.07660961191900305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1334506825466346</v>
+        <v>0.1337942015021558</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1493447486947302</v>
+        <v>0.2194836889412349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004319734083421325</v>
+        <v>0.01216977128506124</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007092634409578195</v>
+        <v>0.01092877835926149</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6102124102858845</v>
+        <v>0.4799169176579977</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -939,35 +939,35 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17705.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4190303816452843</v>
+        <v>0.5317175004823396</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0219353337299036</v>
+        <v>0.05777476800060575</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06103144732004626</v>
+        <v>0.01385338141720792</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09855449045855941</v>
+        <v>0.04168741678923836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1084859461672515</v>
+        <v>0.1507037097226725</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2543499423903012</v>
+        <v>0.1793151921267468</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02335706878842221</v>
+        <v>0.01253034620281894</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01325538950023156</v>
+        <v>0.01241768525837013</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4190303816452843</v>
+        <v>0.5317175004823396</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -983,35 +983,35 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22751.fa</t>
+          <t>even_MAG-GUT26803.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5033795341667238</v>
+        <v>0.6765845099630177</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05069304559758228</v>
+        <v>0.01491338476964401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008456368279620296</v>
+        <v>0.01648812639600206</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1011942839096482</v>
+        <v>0.04389667230674087</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1137345272547427</v>
+        <v>0.09016229957327256</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1991810497188785</v>
+        <v>0.1288630024892754</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01545194397956696</v>
+        <v>0.01441754048329537</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007909247093237527</v>
+        <v>0.01467446401875206</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5033795341667238</v>
+        <v>0.6765845099630177</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1027,35 +1027,35 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23967.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4799169176579977</v>
+        <v>0.5746198443368442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02857756929242398</v>
+        <v>0.04807756131276601</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03851946104286197</v>
+        <v>0.04188505361418368</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07660961191900305</v>
+        <v>0.0591572066117642</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1337942015021558</v>
+        <v>0.1038742987404087</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2194836889412349</v>
+        <v>0.1599263122452832</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01216977128506124</v>
+        <v>0.005072931158582368</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01092877835926149</v>
+        <v>0.007386791980167629</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4799169176579977</v>
+        <v>0.5746198443368442</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1071,35 +1071,35 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2660.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5317175004823396</v>
+        <v>0.5936963472318588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05777476800060575</v>
+        <v>0.06973553250603777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01385338141720792</v>
+        <v>0.005520907699721219</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04168741678923836</v>
+        <v>0.03337741448981082</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1507037097226725</v>
+        <v>0.1080898574348972</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1793151921267468</v>
+        <v>0.1697816685600014</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01253034620281894</v>
+        <v>0.01274796722271905</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01241768525837013</v>
+        <v>0.007050304854953614</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5317175004823396</v>
+        <v>0.5936963472318588</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1115,35 +1115,35 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26803.fa</t>
+          <t>even_MAG-GUT32404.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6765845099630177</v>
+        <v>0.6362595858555856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01491338476964401</v>
+        <v>0.03694033467985556</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01648812639600206</v>
+        <v>0.005009393814844744</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04389667230674087</v>
+        <v>0.0570036848062805</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09016229957327256</v>
+        <v>0.08588725239237806</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1288630024892754</v>
+        <v>0.1641259245552706</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01441754048329537</v>
+        <v>0.007525680703136791</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01467446401875206</v>
+        <v>0.007248143192647804</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6765845099630177</v>
+        <v>0.6362595858555856</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1159,35 +1159,35 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2783.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5746198443368442</v>
+        <v>0.6208902010088717</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04807756131276601</v>
+        <v>0.02798785941196747</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04188505361418368</v>
+        <v>0.01897647027495057</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0591572066117642</v>
+        <v>0.04584885905892441</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1038742987404087</v>
+        <v>0.1075069477155918</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1599263122452832</v>
+        <v>0.1687072829267172</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005072931158582368</v>
+        <v>0.004760803220834015</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007386791980167629</v>
+        <v>0.005321576382142634</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5746198443368442</v>
+        <v>0.6208902010088717</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1203,35 +1203,35 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30102.fa</t>
+          <t>even_MAG-GUT33324.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5936963472318588</v>
+        <v>0.5499176086388171</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06973553250603777</v>
+        <v>0.09656754858424324</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005520907699721219</v>
+        <v>0.009500216065575639</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03337741448981082</v>
+        <v>0.04767270495814429</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1080898574348972</v>
+        <v>0.1103692748657405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1697816685600014</v>
+        <v>0.1625837099243608</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01274796722271905</v>
+        <v>0.01452142677862969</v>
       </c>
       <c r="I18" t="n">
-        <v>0.007050304854953614</v>
+        <v>0.008867510184488525</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5936963472318588</v>
+        <v>0.5499176086388171</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1247,35 +1247,35 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32404.fa</t>
+          <t>even_MAG-GUT35087.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6362595858555856</v>
+        <v>0.5925600159919867</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03694033467985556</v>
+        <v>0.03083784342054562</v>
       </c>
       <c r="D19" t="n">
-        <v>0.005009393814844744</v>
+        <v>0.008388402406459231</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0570036848062805</v>
+        <v>0.05769850764071065</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08588725239237806</v>
+        <v>0.111328684523538</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1641259245552706</v>
+        <v>0.1935171863540323</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007525680703136791</v>
+        <v>0.001872718560572466</v>
       </c>
       <c r="I19" t="n">
-        <v>0.007248143192647804</v>
+        <v>0.003796641102155161</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6362595858555856</v>
+        <v>0.5925600159919867</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1291,35 +1291,35 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32509.fa</t>
+          <t>even_MAG-GUT35206.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6208902010088717</v>
+        <v>0.4071150796003673</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02798785941196747</v>
+        <v>0.01404645155205499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01897647027495057</v>
+        <v>0.1606065140796571</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04584885905892441</v>
+        <v>0.0606585510079808</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1075069477155918</v>
+        <v>0.1027673118162446</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1687072829267172</v>
+        <v>0.152659332630276</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004760803220834015</v>
+        <v>0.06097486488430482</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005321576382142634</v>
+        <v>0.0411718944291145</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6208902010088717</v>
+        <v>0.4071150796003673</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1335,35 +1335,35 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32879.fa</t>
+          <t>even_MAG-GUT35597.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7498708317221088</v>
+        <v>0.5270447002432159</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02733723222095094</v>
+        <v>0.1206667465360241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.008778489264577569</v>
+        <v>0.005563870787172933</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02541607794517915</v>
+        <v>0.06641539703625295</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07960060902091269</v>
+        <v>0.1100317889202518</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1025309118217725</v>
+        <v>0.1593428193099065</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003131409369984949</v>
+        <v>0.005183164007012616</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00333443863451325</v>
+        <v>0.005751513160163126</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7498708317221088</v>
+        <v>0.5270447002432159</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1379,35 +1379,35 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33324.fa</t>
+          <t>even_MAG-GUT36441.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5499176086388171</v>
+        <v>0.4934082232411143</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09656754858424324</v>
+        <v>0.08454303007932346</v>
       </c>
       <c r="D22" t="n">
-        <v>0.009500216065575639</v>
+        <v>0.07825431446047157</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04767270495814429</v>
+        <v>0.04196342104693478</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1103692748657405</v>
+        <v>0.1175077140159987</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1625837099243608</v>
+        <v>0.1608047241748393</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01452142677862969</v>
+        <v>0.01124210097655641</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008867510184488525</v>
+        <v>0.01227647200476142</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5499176086388171</v>
+        <v>0.4934082232411143</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1423,35 +1423,35 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35087.fa</t>
+          <t>even_MAG-GUT3651.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5925600159919867</v>
+        <v>0.4416494338256782</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03083784342054562</v>
+        <v>0.08141012544092949</v>
       </c>
       <c r="D23" t="n">
-        <v>0.008388402406459231</v>
+        <v>0.004018579135780834</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05769850764071065</v>
+        <v>0.1086350553131198</v>
       </c>
       <c r="F23" t="n">
-        <v>0.111328684523538</v>
+        <v>0.1745167692571802</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1935171863540323</v>
+        <v>0.1643250950982368</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001872718560572466</v>
+        <v>0.01212116365667196</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003796641102155161</v>
+        <v>0.01332377827240282</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5925600159919867</v>
+        <v>0.4416494338256782</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1467,35 +1467,35 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35206.fa</t>
+          <t>even_MAG-GUT36692.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4071150796003673</v>
+        <v>0.6910101560274211</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01404645155205499</v>
+        <v>0.05435906978503371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1606065140796571</v>
+        <v>0.01181814819892716</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0606585510079808</v>
+        <v>0.05303514786144684</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1027673118162446</v>
+        <v>0.06819140363914208</v>
       </c>
       <c r="G24" t="n">
-        <v>0.152659332630276</v>
+        <v>0.1049461850570766</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06097486488430482</v>
+        <v>0.00710062994814532</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0411718944291145</v>
+        <v>0.009539259482807122</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4071150796003673</v>
+        <v>0.6910101560274211</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1511,79 +1511,79 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35597.fa</t>
+          <t>even_MAG-GUT3702.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5270447002432159</v>
+        <v>0.2347723668184508</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1206667465360241</v>
+        <v>0.03331075832268518</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005563870787172933</v>
+        <v>0.01767570753155576</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06641539703625295</v>
+        <v>0.2511048842629418</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1100317889202518</v>
+        <v>0.1281082623544005</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1593428193099065</v>
+        <v>0.2324177895269196</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005183164007012616</v>
+        <v>0.07998145039507938</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005751513160163126</v>
+        <v>0.02262878078796693</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5270447002432159</v>
+        <v>0.2511048842629418</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>s__ER4 sp000765235</t>
+          <t>s__ER4 sp900546295</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>s__ER4 sp000765235</t>
+          <t>s__ER4 sp900546295</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36441.fa</t>
+          <t>even_MAG-GUT37154.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4934082232411143</v>
+        <v>0.531532889605697</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08454303007932346</v>
+        <v>0.02333591299088605</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07825431446047157</v>
+        <v>0.003425561091694631</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04196342104693478</v>
+        <v>0.07392215010928226</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1175077140159987</v>
+        <v>0.1343338635301009</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1608047241748393</v>
+        <v>0.2020193386664763</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01124210097655641</v>
+        <v>0.01739470990559801</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01227647200476142</v>
+        <v>0.01403557410026484</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4934082232411143</v>
+        <v>0.531532889605697</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1599,35 +1599,35 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3651.fa</t>
+          <t>even_MAG-GUT37934.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4416494338256782</v>
+        <v>0.5665077298299691</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08141012544092949</v>
+        <v>0.03930033147541633</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004018579135780834</v>
+        <v>0.01117990738506043</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1086350553131198</v>
+        <v>0.04701448539308908</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1745167692571802</v>
+        <v>0.1162057433795869</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1643250950982368</v>
+        <v>0.2022862423154737</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01212116365667196</v>
+        <v>0.008636494472769433</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01332377827240282</v>
+        <v>0.008869065748635094</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4416494338256782</v>
+        <v>0.5665077298299691</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1643,35 +1643,35 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36692.fa</t>
+          <t>even_MAG-GUT38584.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6910101560274211</v>
+        <v>0.3939409355032309</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05435906978503371</v>
+        <v>0.04656421379700589</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01181814819892716</v>
+        <v>0.01492655847661546</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05303514786144684</v>
+        <v>0.08214822621571678</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06819140363914208</v>
+        <v>0.2362752246247689</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1049461850570766</v>
+        <v>0.2098185200595383</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00710062994814532</v>
+        <v>0.006994447604618581</v>
       </c>
       <c r="I28" t="n">
-        <v>0.009539259482807122</v>
+        <v>0.009331873718505414</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6910101560274211</v>
+        <v>0.3939409355032309</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1687,79 +1687,79 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3702.fa</t>
+          <t>even_MAG-GUT39152.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2347723668184508</v>
+        <v>0.5101029834137318</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03331075832268518</v>
+        <v>0.05287461142767041</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01767570753155576</v>
+        <v>0.005539813114381656</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2511048842629418</v>
+        <v>0.08764588529536353</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1281082623544005</v>
+        <v>0.1314352383079612</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2324177895269196</v>
+        <v>0.195163778527335</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07998145039507938</v>
+        <v>0.009504037949553132</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02262878078796693</v>
+        <v>0.007733651964003082</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2511048842629418</v>
+        <v>0.5101029834137318</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>s__ER4 sp900546295</t>
+          <t>s__ER4 sp000765235</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>s__ER4 sp900546295</t>
+          <t>s__ER4 sp000765235</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37154.fa</t>
+          <t>even_MAG-GUT4062.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.531532889605697</v>
+        <v>0.502919927050321</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02333591299088605</v>
+        <v>0.205356041670886</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003425561091694631</v>
+        <v>0.008323588860301502</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07392215010928226</v>
+        <v>0.02935408253525464</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1343338635301009</v>
+        <v>0.1464617245169763</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2020193386664763</v>
+        <v>0.09259797669617348</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01739470990559801</v>
+        <v>0.009288831551661915</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01403557410026484</v>
+        <v>0.005697827118425232</v>
       </c>
       <c r="J30" t="n">
-        <v>0.531532889605697</v>
+        <v>0.502919927050321</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1775,35 +1775,35 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37934.fa</t>
+          <t>even_MAG-GUT4125.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5665077298299691</v>
+        <v>0.6641065052902332</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03930033147541633</v>
+        <v>0.06116828026799209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01117990738506043</v>
+        <v>0.007630481378790996</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04701448539308908</v>
+        <v>0.02911268814068619</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1162057433795869</v>
+        <v>0.09943450148746934</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2022862423154737</v>
+        <v>0.1310810070281852</v>
       </c>
       <c r="H31" t="n">
-        <v>0.008636494472769433</v>
+        <v>0.003080836557336057</v>
       </c>
       <c r="I31" t="n">
-        <v>0.008869065748635094</v>
+        <v>0.004385699849307142</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5665077298299691</v>
+        <v>0.6641065052902332</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1819,35 +1819,35 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38584.fa</t>
+          <t>even_MAG-GUT4207.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3939409355032309</v>
+        <v>0.4966785663349466</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04656421379700589</v>
+        <v>0.1699491485455676</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01492655847661546</v>
+        <v>0.005881677959841955</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08214822621571678</v>
+        <v>0.0557506123596281</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2362752246247689</v>
+        <v>0.1093661610762367</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2098185200595383</v>
+        <v>0.1508582629228937</v>
       </c>
       <c r="H32" t="n">
-        <v>0.006994447604618581</v>
+        <v>0.008025041023726989</v>
       </c>
       <c r="I32" t="n">
-        <v>0.009331873718505414</v>
+        <v>0.003490529777158599</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3939409355032309</v>
+        <v>0.4966785663349466</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1863,35 +1863,35 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39152.fa</t>
+          <t>even_MAG-GUT4832.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5101029834137318</v>
+        <v>0.6145266633984411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05287461142767041</v>
+        <v>0.03566821778452826</v>
       </c>
       <c r="D33" t="n">
-        <v>0.005539813114381656</v>
+        <v>0.01532870714658668</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08764588529536353</v>
+        <v>0.07366142319834212</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1314352383079612</v>
+        <v>0.08596046890687102</v>
       </c>
       <c r="G33" t="n">
-        <v>0.195163778527335</v>
+        <v>0.1627948693585174</v>
       </c>
       <c r="H33" t="n">
-        <v>0.009504037949553132</v>
+        <v>0.00490692002799231</v>
       </c>
       <c r="I33" t="n">
-        <v>0.007733651964003082</v>
+        <v>0.007152730178721269</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5101029834137318</v>
+        <v>0.6145266633984411</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1907,79 +1907,79 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4044.fa</t>
+          <t>even_MAG-GUT50219.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6439256420101839</v>
+        <v>0.2567683651856309</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04007471711187369</v>
+        <v>0.1044338949355783</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01408192780680331</v>
+        <v>0.06685148362987869</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03317653907691365</v>
+        <v>0.09021459714433827</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1051986618959323</v>
+        <v>0.1341284415364911</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1550280534115404</v>
+        <v>0.282788316795085</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002433963054257887</v>
+        <v>0.030753921684349</v>
       </c>
       <c r="I34" t="n">
-        <v>0.006080495632494823</v>
+        <v>0.03406097908864853</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6439256420101839</v>
+        <v>0.282788316795085</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>s__ER4 sp000765235</t>
+          <t>s__ER4 sp900552015</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>s__ER4 sp000765235</t>
+          <t>s__ER4 sp900552015</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4062.fa</t>
+          <t>even_MAG-GUT54544.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.502919927050321</v>
+        <v>0.5823129759539092</v>
       </c>
       <c r="C35" t="n">
-        <v>0.205356041670886</v>
+        <v>0.02418978730688084</v>
       </c>
       <c r="D35" t="n">
-        <v>0.008323588860301502</v>
+        <v>0.009739917933212043</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02935408253525464</v>
+        <v>0.0833312050687</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1464617245169763</v>
+        <v>0.1050377532620957</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09259797669617348</v>
+        <v>0.1825793058970868</v>
       </c>
       <c r="H35" t="n">
-        <v>0.009288831551661915</v>
+        <v>0.008583176246772069</v>
       </c>
       <c r="I35" t="n">
-        <v>0.005697827118425232</v>
+        <v>0.004225878331343325</v>
       </c>
       <c r="J35" t="n">
-        <v>0.502919927050321</v>
+        <v>0.5823129759539092</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1995,79 +1995,79 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4125.fa</t>
+          <t>even_MAG-GUT56361.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.6641065052902332</v>
+        <v>0.08386000578742864</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06116828026799209</v>
+        <v>0.5577929250982485</v>
       </c>
       <c r="D36" t="n">
-        <v>0.007630481378790996</v>
+        <v>0.01871317755940318</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02911268814068619</v>
+        <v>0.1460519792794255</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09943450148746934</v>
+        <v>0.06425869375765327</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1310810070281852</v>
+        <v>0.06429285201970678</v>
       </c>
       <c r="H36" t="n">
-        <v>0.003080836557336057</v>
+        <v>0.04472666511572951</v>
       </c>
       <c r="I36" t="n">
-        <v>0.004385699849307142</v>
+        <v>0.02030370138240454</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6641065052902332</v>
+        <v>0.5577929250982485</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>s__ER4 sp000765235</t>
+          <t>s__ER4 sp003522105</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>s__ER4 sp000765235</t>
+          <t>s__ER4 sp003522105</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4207.fa</t>
+          <t>even_MAG-GUT56948.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4966785663349466</v>
+        <v>0.6511995521635111</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1699491485455676</v>
+        <v>0.03111244362408991</v>
       </c>
       <c r="D37" t="n">
-        <v>0.005881677959841955</v>
+        <v>0.01627910817033497</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0557506123596281</v>
+        <v>0.03180550058006641</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1093661610762367</v>
+        <v>0.1054760076670025</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1508582629228937</v>
+        <v>0.1546250632091309</v>
       </c>
       <c r="H37" t="n">
-        <v>0.008025041023726989</v>
+        <v>0.003443497134727255</v>
       </c>
       <c r="I37" t="n">
-        <v>0.003490529777158599</v>
+        <v>0.006058827451137011</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4966785663349466</v>
+        <v>0.6511995521635111</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2083,35 +2083,35 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4832.fa</t>
+          <t>even_MAG-GUT57094.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.6145266633984411</v>
+        <v>0.673799158827083</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03566821778452826</v>
+        <v>0.0408195166257725</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01532870714658668</v>
+        <v>0.007193249562337283</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07366142319834212</v>
+        <v>0.01792266574337419</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08596046890687102</v>
+        <v>0.1102646650748613</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1627948693585174</v>
+        <v>0.1397615758550578</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00490692002799231</v>
+        <v>0.004612494778646191</v>
       </c>
       <c r="I38" t="n">
-        <v>0.007152730178721269</v>
+        <v>0.005626673532867786</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6145266633984411</v>
+        <v>0.673799158827083</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2127,79 +2127,79 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50219.fa</t>
+          <t>even_MAG-GUT57682.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2567683651856309</v>
+        <v>0.04039143373315796</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1044338949355783</v>
+        <v>0.01574788958847175</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06685148362987869</v>
+        <v>0.7166412998849568</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09021459714433827</v>
+        <v>0.02045624696009335</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1341284415364911</v>
+        <v>0.07763091138244561</v>
       </c>
       <c r="G39" t="n">
-        <v>0.282788316795085</v>
+        <v>0.08743245079639902</v>
       </c>
       <c r="H39" t="n">
-        <v>0.030753921684349</v>
+        <v>0.0342775791648704</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03406097908864853</v>
+        <v>0.007422188489605062</v>
       </c>
       <c r="J39" t="n">
-        <v>0.282788316795085</v>
+        <v>0.7166412998849568</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>s__ER4 sp900552015</t>
+          <t>s__ER4 sp900317525</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>s__ER4 sp900552015</t>
+          <t>s__ER4 sp900317525</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54544.fa</t>
+          <t>even_MAG-GUT57904.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5823129759539092</v>
+        <v>0.5992376401766698</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02418978730688084</v>
+        <v>0.03296604042307261</v>
       </c>
       <c r="D40" t="n">
-        <v>0.009739917933212043</v>
+        <v>0.008362023005164984</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0833312050687</v>
+        <v>0.0497744987144333</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1050377532620957</v>
+        <v>0.1219135485210081</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825793058970868</v>
+        <v>0.1723778766294286</v>
       </c>
       <c r="H40" t="n">
-        <v>0.008583176246772069</v>
+        <v>0.002888613282636856</v>
       </c>
       <c r="I40" t="n">
-        <v>0.004225878331343325</v>
+        <v>0.01247975924758573</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5823129759539092</v>
+        <v>0.5992376401766698</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2215,79 +2215,79 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56361.fa</t>
+          <t>even_MAG-GUT58156.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.08386000578742864</v>
+        <v>0.604542481226815</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5577929250982485</v>
+        <v>0.05653261813495463</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01871317755940318</v>
+        <v>0.02682032281440145</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1460519792794255</v>
+        <v>0.02802660312870375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06425869375765327</v>
+        <v>0.1395576054879462</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06429285201970678</v>
+        <v>0.135488931988562</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04472666511572951</v>
+        <v>0.003345626230198904</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02030370138240454</v>
+        <v>0.005685810988418188</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5577929250982485</v>
+        <v>0.604542481226815</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>s__ER4 sp003522105</t>
+          <t>s__ER4 sp000765235</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>s__ER4 sp003522105</t>
+          <t>s__ER4 sp000765235</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56948.fa</t>
+          <t>even_MAG-GUT58768.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6511995521635111</v>
+        <v>0.5744547862254936</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03111244362408991</v>
+        <v>0.05858117977816164</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01627910817033497</v>
+        <v>0.006126325578739791</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03180550058006641</v>
+        <v>0.05100027317879664</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1054760076670025</v>
+        <v>0.1159714093857217</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1546250632091309</v>
+        <v>0.18741544059901</v>
       </c>
       <c r="H42" t="n">
-        <v>0.003443497134727255</v>
+        <v>0.003041083547098648</v>
       </c>
       <c r="I42" t="n">
-        <v>0.006058827451137011</v>
+        <v>0.003409501706977815</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6511995521635111</v>
+        <v>0.5744547862254936</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2303,35 +2303,35 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57094.fa</t>
+          <t>even_MAG-GUT59114.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.673799158827083</v>
+        <v>0.4702648179123939</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0408195166257725</v>
+        <v>0.06741355772927865</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007193249562337283</v>
+        <v>0.0524620709657273</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01792266574337419</v>
+        <v>0.1009863029833957</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1102646650748613</v>
+        <v>0.09959201731553245</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1397615758550578</v>
+        <v>0.1748216185009746</v>
       </c>
       <c r="H43" t="n">
-        <v>0.004612494778646191</v>
+        <v>0.01736680890906045</v>
       </c>
       <c r="I43" t="n">
-        <v>0.005626673532867786</v>
+        <v>0.01709280568363705</v>
       </c>
       <c r="J43" t="n">
-        <v>0.673799158827083</v>
+        <v>0.4702648179123939</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2347,79 +2347,79 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57682.fa</t>
+          <t>even_MAG-GUT59205.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.04039143373315796</v>
+        <v>0.5926959728468193</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01574788958847175</v>
+        <v>0.03205500456554378</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7166412998849568</v>
+        <v>0.01784206826149679</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02045624696009335</v>
+        <v>0.03915513424789285</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07763091138244561</v>
+        <v>0.1457301068126473</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08743245079639902</v>
+        <v>0.1661090380524118</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0342775791648704</v>
+        <v>0.00256662783965902</v>
       </c>
       <c r="I44" t="n">
-        <v>0.007422188489605062</v>
+        <v>0.003846047373529039</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7166412998849568</v>
+        <v>0.5926959728468193</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>s__ER4 sp900317525</t>
+          <t>s__ER4 sp000765235</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>s__ER4 sp900317525</t>
+          <t>s__ER4 sp000765235</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57904.fa</t>
+          <t>even_MAG-GUT6856.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5992376401766698</v>
+        <v>0.2901030247051875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03296604042307261</v>
+        <v>0.02320249851110663</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008362023005164984</v>
+        <v>0.007568491347874832</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0497744987144333</v>
+        <v>0.1787528003230039</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1219135485210081</v>
+        <v>0.1311488735066201</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1723778766294286</v>
+        <v>0.2867708115992012</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002888613282636856</v>
+        <v>0.06702974323992167</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01247975924758573</v>
+        <v>0.01542375676708439</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5992376401766698</v>
+        <v>0.2901030247051875</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2435,35 +2435,35 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58156.fa</t>
+          <t>even_MAG-GUT79219.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.604542481226815</v>
+        <v>0.2998524438086995</v>
       </c>
       <c r="C46" t="n">
-        <v>0.05653261813495463</v>
+        <v>0.02663469256554504</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02682032281440145</v>
+        <v>0.06006590869996122</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02802660312870375</v>
+        <v>0.06156280563610253</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1395576054879462</v>
+        <v>0.2600869315456272</v>
       </c>
       <c r="G46" t="n">
-        <v>0.135488931988562</v>
+        <v>0.2510536289350159</v>
       </c>
       <c r="H46" t="n">
-        <v>0.003345626230198904</v>
+        <v>0.01884271606867801</v>
       </c>
       <c r="I46" t="n">
-        <v>0.005685810988418188</v>
+        <v>0.02190087274037055</v>
       </c>
       <c r="J46" t="n">
-        <v>0.604542481226815</v>
+        <v>0.2998524438086995</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2479,35 +2479,35 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58768.fa</t>
+          <t>even_MAG-GUT8640.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5744547862254936</v>
+        <v>0.370713146326021</v>
       </c>
       <c r="C47" t="n">
-        <v>0.05858117977816164</v>
+        <v>0.03159993719702904</v>
       </c>
       <c r="D47" t="n">
-        <v>0.006126325578739791</v>
+        <v>0.02425905948993722</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05100027317879664</v>
+        <v>0.1172144991731124</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1159714093857217</v>
+        <v>0.1391838353725693</v>
       </c>
       <c r="G47" t="n">
-        <v>0.18741544059901</v>
+        <v>0.2437772799940028</v>
       </c>
       <c r="H47" t="n">
-        <v>0.003041083547098648</v>
+        <v>0.06119281991023345</v>
       </c>
       <c r="I47" t="n">
-        <v>0.003409501706977815</v>
+        <v>0.01205942253709493</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5744547862254936</v>
+        <v>0.370713146326021</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2523,35 +2523,35 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59114.fa</t>
+          <t>even_MAG-GUT8940.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.4702648179123939</v>
+        <v>0.4231957679274618</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06741355772927865</v>
+        <v>0.01737700608354154</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0524620709657273</v>
+        <v>0.03166938564473033</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1009863029833957</v>
+        <v>0.1758410149390618</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09959201731553245</v>
+        <v>0.1234860515801562</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1748216185009746</v>
+        <v>0.1779963020056672</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01736680890906045</v>
+        <v>0.03712686151326772</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01709280568363705</v>
+        <v>0.01330761030611328</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4702648179123939</v>
+        <v>0.4231957679274618</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2559,226 +2559,6 @@
         </is>
       </c>
       <c r="L48" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59205.fa</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5926959728468193</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.03205500456554378</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.01784206826149679</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.03915513424789285</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.1457301068126473</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.1661090380524118</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.00256662783965902</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.003846047373529039</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5926959728468193</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6856.fa</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2901030247051875</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.02320249851110663</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.007568491347874832</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.1787528003230039</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.1311488735066201</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.2867708115992012</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.06702974323992167</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.01542375676708439</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2901030247051875</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79219.fa</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.2998524438086995</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.02663469256554504</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.06006590869996122</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.06156280563610253</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.2600869315456272</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.2510536289350159</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.01884271606867801</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.02190087274037055</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.2998524438086995</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8640.fa</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.370713146326021</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.03159993719702904</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.02425905948993722</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.1172144991731124</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.1391838353725693</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.2437772799940028</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.06119281991023345</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.01205942253709493</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.370713146326021</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8940.fa</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.4231957679274618</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.01737700608354154</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.03166938564473033</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.1758410149390618</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.1234860515801562</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.1779963020056672</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.03712686151326772</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.01330761030611328</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4231957679274618</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>s__ER4 sp000765235</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
         <is>
           <t>s__ER4 sp000765235</t>
         </is>
